--- a/Project_data.xlsx
+++ b/Project_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\razmo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\razmo\PycharmProjects\Streamlit_project\streamlit_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E013FFC9-1208-4A7A-82D3-276CCFC06D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C088EE59-CE0F-4C56-9D72-8EBE85649151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{068D7D3C-86FC-47D0-997A-7CD6006DAF72}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="12735" xr2:uid="{068D7D3C-86FC-47D0-997A-7CD6006DAF72}"/>
   </bookViews>
   <sheets>
     <sheet name="badCounts_vs_b" sheetId="1" r:id="rId1"/>
@@ -404,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A77B769-395E-4CCA-A1F9-CF30CEA9ACAB}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,10 +460,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>515</v>
+        <v>296</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -477,10 +477,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>536</v>
+        <v>192</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>0.75</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -494,12 +494,54 @@
         <v>542</v>
       </c>
       <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>515</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>536</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>542</v>
+      </c>
+      <c r="B9">
         <v>20</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
         <v>0</v>
       </c>
     </row>
@@ -510,10 +552,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4945ADCC-5B02-4403-8DE5-216FAA3097E4}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,10 +604,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1.6E-2</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -576,10 +618,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>8.0000000000000002E-3</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>0.75</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -590,15 +632,57 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1.6E-2</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="B6">
+      <c r="B9">
         <v>20</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
         <v>0</v>
       </c>
     </row>

--- a/Project_data.xlsx
+++ b/Project_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\razmo\PycharmProjects\Streamlit_project\streamlit_app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\razmo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C088EE59-CE0F-4C56-9D72-8EBE85649151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E26A098-CE92-4DEC-BE8E-EA6D85AEE670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="12735" xr2:uid="{068D7D3C-86FC-47D0-997A-7CD6006DAF72}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="12735" xr2:uid="{068D7D3C-86FC-47D0-997A-7CD6006DAF72}"/>
   </bookViews>
   <sheets>
     <sheet name="badCounts_vs_b" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>b</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>bad_counts</t>
-  </si>
-  <si>
-    <t>The shots are out of 20000</t>
   </si>
 </sst>
 </file>
@@ -404,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A77B769-395E-4CCA-A1F9-CF30CEA9ACAB}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,7 +413,7 @@
     <col min="6" max="6" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -430,7 +427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -444,7 +441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>53</v>
       </c>
@@ -458,7 +455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>296</v>
       </c>
@@ -471,11 +468,8 @@
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="F4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>192</v>
       </c>
@@ -489,7 +483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>542</v>
       </c>
@@ -503,7 +497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>515</v>
       </c>
@@ -517,7 +511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>536</v>
       </c>
@@ -531,7 +525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>542</v>
       </c>
